--- a/vld.xlsx
+++ b/vld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,3644 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>49736033d6e3af5eb618861ea8136d9a</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3aa20d6092d4d7b4c5c98a9746cee5c0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>d99b7867cdfcfad6e5ee42819aae354e</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76bb5e20536aaf297dc1762a7cc4693d</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Joey Antonelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12bb27a87c6389b6474e3e76c44699d6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bb82a7481eb02e5c3e72c387fe03d378</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sophia Browder</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>67e8f26fc25d6279cfbb6bbbcd7579a8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Aubrey Amon</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6e4ead462e50964d71e45d5f5b95ece4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>b0274067359ac8aee62ba33b4a0f228f</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sophia Browder</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ethan Greenberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ef748a44823b4d2586de88f55367e88e</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aubrey Amon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9065c700d72313c7db3627a812d47f03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Shania Dhanaraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1198529b250573e68d49c74abd05f46d</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3d8b077b1a7a9b8804acbeffb4393a50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6825e0b9581807b40096a62a1e27b03d</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Joey Antonelli</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Daniel Arakawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dd6baa3b2748efb7091613aba76342ac</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Shania Dhanaraj</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Maria Cazzato</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>d55ea35af055588c7eeb5329a9fd9e27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ab61ff2d94383f3da2402d07f079b5dc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>860e9346ae2c90bcbba257a147e09a04</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sophia Browder</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dohyun Ku</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ace616367aed48b2700ee67512515d07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05b14f3df629558e0ab99c2838a43f98</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dens Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>f513f0a31f7148f269f60c205edd9824</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kat Xue</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Zoe Soderquist</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0aaaacf13f2e07becca0c6b6f4524b8a</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ameya Puranik</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ceed55eaa06dacd24cb5595185bbdd19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Waad Rahal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>799d6f430cff448f059701a82e447eed</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ethan Greenberg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>d6c8f472cac49ac60024ca46f237f113</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sarah Maisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>779c547732a753ff809e17a41a525936</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rayna Shaik</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Anuj Rahatekar</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3ca38144d375ee2eb259c4435b57a22a</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>76ccf3dde4959b70542f4ab665809904</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>e11f1d4e9bfbf766d10a762d531477b9</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yoojin Han</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>f207204d09a1c6bb83cfc735ea0d689d</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Raunak Deb</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5bac91bfc6e181218e43b6844804ad04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>998b8469ec202fa2e1eba73281953376</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>defed838d4271bcfed6575188da54dd6</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Daniel Arakawa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Madeleine Joslin</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>b5ac65fd2398981ee5b2d0230c4457a1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Joey Antonelli</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7c0a4a22e02ff56be745600e7de02d4e</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rishab Jain</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>b797a111263996d4e503439e6b300401</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Elizabeth Su</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Gagan Vaidyanathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6c08c0d536e35e0e5e6c30ebe77fce2d</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Aubrey Amon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ved Patil</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>920626bec8461c0c860a5247c7429b19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Gagan Vaidyanathan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1733241a8f8813ce59f7bef7653df9d2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>9fffdcf6b3fa2d8eee20f20c5d41846e</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Daniel Arakawa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Elizabeth Su</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>d23aac6cc27774338e88b469fa224af1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Anuj Rahatekar</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Madeleine Joslin</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>dd2e20775cdaa59c262d6b0e65deca0a</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Dohyun Ku</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ved Patil</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>37c8b75a09ae4d3fab9cce4296750d3d</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Raunak Deb</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>d4cd10233ae2be9ad1d48ec3131e418e</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sophia Browder</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>f963067f11a6df3bb751c3392aee48ad</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ameya Puranik</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>eda46636b118dc07d3fff1473f0c8f22</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Kat Xue</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6d0d3cb8be255bc4179d318710178772</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Zoe Soderquist</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Dens Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>a8eebb3010fdb1078700f849d7f9ee0c</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>a1ec46dda251fb7d44c10275fa12b6e0</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Aubrey Amon</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5b6d793b95370db3e87a4c2c91555d3e</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yoojin Han</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6aa810edafef12ca7e68e6992096ce48</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Maria Cazzato</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2757220cd33c15f8c584b90abe814f97</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>34dfe7b2e5088fde9cb8bdc552b1464b</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Shania Dhanaraj</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>b23638e79448080e9d28c1461da84420</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rayna Shaik</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6be9a1d81f962ce6f299d5303ef566e3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rishab Jain</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3bdd40d3fad52d87bcf0514a49f27ba4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>c5385fc298c77c8e34e1908ae830329c</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>972f25f954b0c6a4b9fb4097e7881f11</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Joey Antonelli</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>e8df33b730155afa62d0cf0e66f9173f</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ethan Greenberg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>be8a459f13e1e099a82f5a45144a802b</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sarah Maisha</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Waad Rahal</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>f72137ebb886891e507127546afeb682</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Shania Dhanaraj</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4440e6563879b68bd37e3cdbe17a6f16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Madeleine Joslin</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rayna Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>d57b3af508bd5bdbb0e3124ba354427e</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5b9442364e073fcc52c0e27567dd413a</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Anuj Rahatekar</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4a3a720d7b58dddbba48e9e1b8101937</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Daniel Arakawa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>f9fef935ca52788e3f9bad4685473aa6</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Aubrey Amon</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>9f4a948be88120b91c19ef1a1dbaa9a0</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sophia Browder</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Kat Xue</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>5a9f39c835fc5851de875bb011b9dc1d</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ved Patil</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>82d4acbe03fabcead19268e14b590c8b</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Maria Cazzato</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Dens Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>9f7f61f1649ad205e610e21dced460d4</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Raunak Deb</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Waad Rahal</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>38530b04d8f33c68aadb40595211464c</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>e08db1d0df56b2e21aba5305bd6a0e76</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>43e0dc3816f3a054754f328ed989c5fe</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Elizabeth Su</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sarah Maisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ae8c27361c1cbc55947c2b22616bb853</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Joey Antonelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dda88e6122a01af3785413acd98e5ddc</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>98516791693eebddd6bc105c714e8790</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rishab Jain</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4eaf2833b48c522ccde39fd88ee491bf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Zoe Soderquist</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>a8ddf777dd413ac544239037ab379d10</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>35ae28ff2836cb22381bf8adb560a1a5</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Dohyun Ku</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>a144daef62499357b89690f9facc8a2a</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ameya Puranik</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>614a23733c60e7cdf2578815413c6765</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Gagan Vaidyanathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0002d7a74df52f0d27da82b092c76e80</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yoojin Han</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ethan Greenberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04723983429cf6cc31af84ada07990fa</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>55dc4136cf8e49e3424fd8a3c251ffe5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Elizabeth Su</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4c479b413090e79ed60134c933b90bd1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>68631a54474ed8d51d293692cf404f7d</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>c9e91d7326f4a7d68abb2e84f7554ac7</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Ethan Greenberg</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>fc0dcb063c420aebefa9b81d8213bc6f</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dfc897329c401736971e0e3aca1b6670</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Waad Rahal</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>9b20083e51a560ba9d372e6e595a8a8c</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Ved Patil</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Yoojin Han</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>d89de3ffa16cde97859f41e5d4655f3e</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ameya Puranik</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Dens Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>b423f64f398c76ff577916dafed3810a</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Raunak Deb</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Kat Xue</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>78c9b48587be830a26d93813d580e415</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Joey Antonelli</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>b085a3d1f07b70c4855f7498011c6c0f</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Anuj Rahatekar</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>bb4bdba1d9648dce6c22b60d0da8d5fe</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Delaney Krieger</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1abf09eeb5886ab491b55bf88b0ecc16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rayna Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>afd5aee827885ea4c4bbd55e12f2b301</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Saif Agha</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>8013f6cb82b64b4c6d81a04f9405d0be</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Zoe Soderquist</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>bd9bb417ed07a269ec645e982fa98aed</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Shania Dhanaraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>b03e1f7d9c1c62f0c801ec145fc48e1d</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Sophia Browder</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Madeleine Joslin</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>edb87dda597038671256c7e70684a07e</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sarah Maisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>36514b2ccee47d613631cdc254879e91</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pratik Shah</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>546edc4bc2749e295da6e184c2559715</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Rishab Jain</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Gagan Vaidyanathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>e173c041b6306cd38477a65ec2a83dfd</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Aubrey Amon</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Maria Cazzato</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>142f102577315d80a46b2ccfa254380d</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Dohyun Ku</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>29b2de955e31fd7fc1f21076f53efa93</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Daniel Arakawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0c4fd8bbb65a7bb2729f2718f079e1cb</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>988722bdb6320eecececfa9748140909</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>aa64a4e64be2f840fe0a41afbddf1ae9</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>56b0037047610fdf5b7e159b3664ff83</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>b8a0c5b6b1ad6e269b046e4a22a553b8</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>bf38875301e52cd256954d2add1d7825</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>James Driscoll</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>9fb1b7d8199bd74a32d4a92587f703d6</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Connor Clark</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>94bd0ed706bfd4f5dd76dd322fd87877</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>McKinley Paltzik</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ca0433d89b144ecc577e65c366d8bd58</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>65014439f25c198e651a510bc4d9e2e7</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Connor Clark</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Jacob Massoud</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>b6fefda2fd69d60bdcc11976974beeee</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>195bcff089a003634c3a5d50430c91bd</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>James Driscoll</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Adyant Mishra</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>eee6635362ae7c62304876ba7ac20dd8</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Connor Clark</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1b83e33c1dc89efe4974006c82153792</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0f16be418703d176b7cb43d04f77554e</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Jacob Massoud</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>18d8c500bb1103a4c659f5115b28ae1e</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>36f6c0d4e8f505565c77fae89b30f584</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>91789440eed5da14534f458476285465</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>McKinley Paltzik</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>6d5692d54b1613583f7155bb2724379c</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>d63e799716634902ac583e8a284e00e7</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Griffin Eckstein</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>f943504895965f3cb5fd53b64e63ae79</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>c0391ff97662a80afde67c079ed462af</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Amanda McAlphin</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3ba766964c01bbaf1196665a282cf8cf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Vinnie Montalbano</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Manasvi jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>dc99f91368cfab26b0e71f24bdd2a62f</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ashton Branca</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>d678338c079083e31527b06f70335c1e</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>6b680b65a6667500e14b207c4201fa47</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>fe9f5322927e4629f72dd3e2599539bb</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>27b43f1054d1e0fdb6494f4ebb1633cc</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Connor Clark</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2b1439430e010e04877b5d144db45de5</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>9e522d7988d1674760d38c8b06af228f</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>McKinley Paltzik</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Amanda McAlphin</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>f93a96e60c7e4ca85cf89d7f353f99ce</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ashton Branca</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Adyant Mishra</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>f29518c46e717b15cabd550ea2b8ccb4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Griffin Eckstein</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>39f792d1cb63e1b7a7c54abafe231e3f</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4110ff91149e940115727b890c89295a</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>James Driscoll</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>68461a407f4dc632cdcb36fd9c629c70</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>fa030fcaa2e366ed40ea89449c755cf5</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Jacob Massoud</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Manasvi jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>739f6e8d1862e0077b4cfde53f7a085f</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Nate Leahy</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2136226c02d8bd1f722fff515e62485d</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>69e14bf7c037f246579f93c89abd068e</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Vinnie Montalbano</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ea95e94c5a617bc3bfbd120e382f5679</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>James Driscoll</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>298f485472418263abc3d8c1e3b9450d</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3cd1031af678e01b6ff599a88861393a</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>McKinley Paltzik</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Nate Leahy</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>65b5ded880a4f96b9c3a7ac0cfcb65ba</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>c700abd92abab09d94ff00ff7e0f0eee</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>cce28c23b5ed3c0fc5401ec07f3be3b1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Ashton Branca</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>998a4a1fa56b3508b23ebbdfac2223af</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>9f78be8d117b1dbf6ed165f95537d176</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Adyant Mishra</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>e23a267195af895dd115c701ca3dee1e</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Amanda McAlphin</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>f914eae37006d04c36850697ff80b7e5</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Jacob Massoud</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Vinnie Montalbano</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ce61b56c2c11fdbddca7caf2013401d6</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Manasvi jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2df3c0e7ae7b5d7672f05fa198b49b29</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>42fae2c1529f1091fb5b39f8c8ec66ed</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Connor Clark</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>fe1e2ece80a604c45751444c31510624</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Griffin Eckstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>df29387b98235081b43c73ec0e87166f</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Ryan Gan</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Vinnie Montalbano</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>889c277d9ab024c1a556c4cfec043fd2</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Waad Rahal</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Ashton Branca</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>301eeca84876e87f6c32b24be04ce7f4</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Ben Phillips</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>f97a7fb6166c993d545e4d29594ef0ee</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Adyant Mishra</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Griffin Eckstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>be55fee8f2afdcc660bcc4e0ac0b02e5</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Avi Agarwal</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Jacob Massoud</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>d751c9192168aaab51cb3af97ef21872</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>83ca29ce3082da2a33243ff1c2341531</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Amanda McAlphin</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>3e96951125548435c34c3d679f9f5e16</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Carter Miller</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Nate Leahy</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>8e6fd95859d85f0a2961df11d5544229</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>James Driscoll</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Philimon Yosafat</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>28bd5e749f85a6e7ec468feb07f9a535</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Logan Kraver</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Joseph Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2aa3d88ca8df36320bfdb64b68e27a48</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Jared Perkins</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Manasvi jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>752ae49b840bacfac4bb16d056d6da23</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Katie Jones</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Adam Dudebout</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>8d41766a9ca052c68899b104bdbf20c3</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ethan Nicoll</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>fd836630fce1a7854d42da90248f23fd</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Connor Clark</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>00891c63e15cb1d77097f3a0c963d09f</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Mia Lupica</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>McKinley Paltzik</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>c938e99044b953bef031cfbf788143f4</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>72b61513f88a7324ac95ad937b20b889</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>93dc6aff0a81d4f371ff810a76149649</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>edc03159f4c7e546ea9d297afe177a90</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Mia Osmonbekov</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>9d58a7a2a949eb5be3b1ca7a66af2364</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Mia Osmonbekov</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>c519b87ce5acdd34a86bbaca44ea6f04</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Fallon Sannes</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Parker Lisner</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>a8bb083a018de77e556a43139ab32481</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sohani Sandhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>e15da3fc90f9392c2387cf2fdf7162f2</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Julieta Araiza-Alvarez</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Jerod Folden</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>3b6c33140bd665a42e4e20bc332018fe</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>d4fa59c0b4152ee10e98d5c0d9255a34</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>9f4fc7037d00f862d176b251b6decc9f</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>c5bbd21a36a4db3081a18ca4605b6fa3</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>20fe76fd615a0de6a945a459295b21f9</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Shankar Chakkera</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>62c2471ca1033d4b2e1915a0ce697f83</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Julieta Araiza-Alvarez</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>4c31b760cae620e99910b2836cb6b5b6</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>841fb284d7e1fca96214825969d5f9ba</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>61e4f09b663ee41daf54ce5b900a399a</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Jerod Folden</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Austin Keith</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>04cfb23878f498b7b8cfcec21b8a30af</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sohani Sandhu</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Parker Lisner</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>c898bb4327ed706a6f2f5202319c7be4</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>845a393b2ff52bf583e3f26c77175295</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Shankar Chakkera</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Fallon Sannes</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>c55f67920f61becfd45b44f0b184bff1</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ffe35850609883048be7f54c65dc736a</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>5b93de3703a420d238d2f4f3e15cc532</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Fallon Sannes</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>82fe52cc0e154ff7fc3a35f8916afba3</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Mia Osmonbekov</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Jerod Folden</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>9e09a08fedbc9dbcca576d636af7089c</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Julieta Araiza-Alvarez</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>915f8e1c712e0379148024df37185707</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>7ed0a75f9dc338f4887c9f17e5e52655</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>70fa372dcb8d542f9d2559cae5a039fd</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Austin Keith</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>f51bab1a6a84c6ae77c3158150d0663d</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Sohani Sandhu</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>23ef9eae23440ecce7425c21f80b56f7</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Parker Lisner</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>0dd6262d1aadd42062cb0c4bf3bcad96</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Karim Jayyusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>e76501058bac8d8455656271c014f1ea</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Antonio Gomez</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Austin Keith</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>359371971d241393a80a4bb0d19d8940</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Baaz jhaj</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Julieta Araiza-Alvarez</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>a5e347cf9c5108124558ea0ae20ae9a5</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Rhegan Crabtree</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Shankar Chakkera</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>86141a20b9b7742137b8f7e2eb56ad88</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Rio Pham</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Mia Osmonbekov</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>dd4f27559d6b6cda9d1dc48ebb5aea05</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Parker Lisner</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>0a565c477c218d311e0e046ae930450d</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Andrew Xie</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Sohani Sandhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>7854931776f8dfe74aa60108c31eadc1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Nolan Burke</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Jerod Folden</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>8dfa8ca2c7aa1560afe68b0c88eb7d6f</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Zachary Jones</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Fallon Sannes</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>6d6204fd29f795415b13f325c9edc972</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Michael Randolph</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sarah Dowden</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
